--- a/ig/contenu_narratif_update3/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/contenu_narratif_update3/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T12:17:54+00:00</t>
+    <t>2023-07-27T08:18:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
